--- a/MEMO/일정제출용.xlsx
+++ b/MEMO/일정제출용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\MEMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22161C1C-6B12-4FFF-AF95-D8B8E94ED82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57569DCD-326E-46E8-BAE9-3D4C7E73FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{B1FC1A9D-9DC6-4D78-96DA-D786D7283363}"/>
   </bookViews>
@@ -282,7 +282,7 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>198664</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5497286" cy="1304925"/>
+    <xdr:ext cx="5497286" cy="1747157"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="TextBox 14">
@@ -297,7 +297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4463143" y="8771164"/>
-          <a:ext cx="5497286" cy="1304925"/>
+          <a:ext cx="5497286" cy="1747157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE3A2F9-5CE3-433B-AF47-744C5ECC74E9}">
   <dimension ref="F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF58" sqref="AF58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
